--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -1098,8 +1098,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1235,8 +1234,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1512,8 +1510,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1649,9 +1646,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1865,10 +1860,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about biodiversity net gain requirements for the development,
-including pre-development biodiversity value, habitat loss details, and
-supporting documentation
-</t>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -2357,8 +2349,7 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
@@ -2393,9 +2384,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -2484,8 +2473,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -2574,9 +2562,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Module for capturing information about employment impacts of a development 
-proposal, including existing and proposed employee counts
-</t>
+          <t>How the proposed development will impact employment, including existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -2797,8 +2783,7 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the current and previous use of the site, including contamination status and supporting documents.
-</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
@@ -3088,9 +3073,7 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about flood risk assessments for planning applications including flood risk area status, 
-data sources, assessment documents, watercourse proximity, flood risk impacts, and surface water disposal methods
-</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -3260,7 +3243,7 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Hours of opening for each non-residential use proposed</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -3509,7 +3492,7 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Information about non-residential floorspace changes including use class details and room counts for specific accommodation types</t>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
@@ -4040,8 +4023,7 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about ownership of the site and/or property for development, including agricultural tenants and notification requirements.
-</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -4506,8 +4488,7 @@
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
@@ -4650,9 +4631,7 @@
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about site activities, processes, and waste management development
-including facility types, capacities, and throughput details
-</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
@@ -4962,8 +4941,7 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about what development, works or change of use is being proposed
-</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
@@ -5133,9 +5111,7 @@
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about residential units including existing and proposed unit counts, 
-with detailed breakdowns by tenure and housing type
-</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -5687,9 +5663,7 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the size of the development site, including 
-the area measurement and source of the measurement
-</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -5751,9 +5725,7 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
@@ -6040,8 +6012,7 @@
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -2562,7 +2562,7 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact employment, including existing and proposed employee numbers</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -711,7 +711,7 @@
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3808,14 +3808,14 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Use class</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3839,19 +3839,19 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3870,14 +3870,14 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3901,19 +3901,19 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3932,19 +3932,19 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -3963,19 +3963,19 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -3994,14 +3994,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4011,37 +4011,33 @@
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr"/>
+          <t>Room details[]</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>Net additional rooms</t>
+        </is>
+      </c>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -4051,11 +4047,19 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
+          <t>Sole owner</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -4063,7 +4067,7 @@
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4082,33 +4086,25 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Agricultural tenants</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4127,13 +4123,13 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4143,7 +4139,7 @@
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4162,13 +4158,13 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4197,13 +4193,13 @@
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4232,13 +4228,13 @@
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4248,7 +4244,7 @@
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4262,19 +4258,23 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Notice date</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -4288,20 +4288,24 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>Notice date</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -4315,19 +4319,15 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>Newspaper name</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4351,19 +4351,19 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Publication date</t>
+          <t>Newspaper name</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4377,25 +4377,29 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr">
+        <is>
+          <t>Publication date</t>
+        </is>
+      </c>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4404,7 +4408,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Ownership certificate type</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4412,12 +4416,12 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -4431,7 +4435,7 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4439,7 +4443,7 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4458,7 +4462,7 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4466,12 +4470,12 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
@@ -4481,19 +4485,11 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A127" s="2" t="n"/>
+      <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -4501,26 +4497,34 @@
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr"/>
@@ -4528,17 +4532,17 @@
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4551,7 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4555,7 +4559,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4574,7 +4578,7 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -4582,7 +4586,7 @@
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4601,7 +4605,7 @@
       <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -4609,7 +4613,7 @@
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4624,19 +4628,11 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr"/>
@@ -4644,7 +4640,7 @@
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4654,16 +4650,24 @@
       </c>
       <c r="I132" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n"/>
-      <c r="B133" s="2" t="n"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr"/>
@@ -4671,12 +4675,12 @@
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4690,24 +4694,20 @@
       <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>Waste management facility type</t>
-        </is>
-      </c>
+          <t>Proposal waste management</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr"/>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4726,24 +4726,24 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Waste management facility type</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4757,19 +4757,19 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4788,14 +4788,14 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4814,19 +4814,19 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4850,14 +4850,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4881,14 +4881,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4912,14 +4912,14 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -4934,46 +4934,50 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -4981,12 +4985,12 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5000,7 +5004,7 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5008,12 +5012,12 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5027,7 +5031,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5035,17 +5039,17 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5054,7 +5058,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5062,17 +5066,17 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5085,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5089,34 +5093,26 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5124,43 +5120,47 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr"/>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -5179,14 +5179,14 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
+          <t>Tenure type</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -5210,23 +5210,19 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
@@ -5250,17 +5246,13 @@
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -5294,22 +5286,22 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5333,12 +5325,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5348,7 +5340,7 @@
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5367,13 +5359,17 @@
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5383,7 +5379,7 @@
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5397,28 +5393,28 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
+          <t>Total units</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5437,17 +5433,13 @@
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5481,22 +5473,22 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5512,12 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5535,7 +5527,7 @@
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5554,13 +5546,17 @@
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5570,7 +5566,7 @@
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5579,15 +5575,23 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr"/>
-      <c r="E161" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5597,7 +5601,7 @@
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5606,7 +5610,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5614,7 +5618,7 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5633,7 +5637,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5641,7 +5645,7 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5656,19 +5660,11 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5676,7 +5672,7 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -5691,11 +5687,19 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n"/>
-      <c r="B165" s="2" t="n"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5703,51 +5707,39 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr"/>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -5757,8 +5749,16 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -5766,19 +5766,19 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -5797,14 +5797,14 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -5828,19 +5828,19 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5859,14 +5859,14 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5890,14 +5890,14 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5921,14 +5921,14 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -5952,19 +5952,19 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -5983,14 +5983,14 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -6005,46 +6005,50 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A175" s="2" t="n"/>
+      <c r="B175" s="2" t="n"/>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n"/>
-      <c r="B176" s="2" t="n"/>
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr"/>
@@ -6052,12 +6056,12 @@
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
@@ -6071,7 +6075,7 @@
       <c r="B177" s="2" t="n"/>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr"/>
@@ -6079,17 +6083,17 @@
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6098,19 +6102,15 @@
       <c r="B178" s="2" t="n"/>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr"/>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6134,14 +6134,14 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6165,22 +6165,53 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n"/>
+      <c r="B181" s="2" t="n"/>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6188,50 +6219,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A176:A181"/>
     <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B165:B166"/>
     <mergeCell ref="B43:B57"/>
+    <mergeCell ref="B133:B142"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B32"/>
     <mergeCell ref="A82:A87"/>
+    <mergeCell ref="A95:A112"/>
     <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B127:B131"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A58"/>
-    <mergeCell ref="B166:B174"/>
     <mergeCell ref="B65:B71"/>
-    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B176:B181"/>
     <mergeCell ref="B72:B81"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B95:B112"/>
     <mergeCell ref="B2:B20"/>
     <mergeCell ref="B82:B87"/>
-    <mergeCell ref="B112:B126"/>
+    <mergeCell ref="A113:A127"/>
     <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A132:A141"/>
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B37:B42"/>
     <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B175:B180"/>
     <mergeCell ref="B58"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A95:A111"/>
+    <mergeCell ref="A167:A175"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="B143:B148"/>
     <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B164:B165"/>
     <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="A112:A126"/>
-    <mergeCell ref="A166:A174"/>
+    <mergeCell ref="A133:A142"/>
+    <mergeCell ref="B149:B164"/>
+    <mergeCell ref="A128:A132"/>
     <mergeCell ref="A2:A20"/>
     <mergeCell ref="A43:A57"/>
-    <mergeCell ref="B148:B163"/>
+    <mergeCell ref="B113:B127"/>
+    <mergeCell ref="A149:A164"/>
     <mergeCell ref="A65:A71"/>
-    <mergeCell ref="B95:B111"/>
+    <mergeCell ref="B167:B175"/>
+    <mergeCell ref="A143:A148"/>
     <mergeCell ref="A72:A81"/>
-    <mergeCell ref="A142:A147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -506,10 +506,14 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr">
@@ -533,10 +537,14 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
@@ -560,10 +568,14 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr">
@@ -587,10 +599,14 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
@@ -614,10 +630,14 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
@@ -641,10 +661,14 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
       <c r="G7" s="2" t="inlineStr">
@@ -668,15 +692,19 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -699,15 +727,19 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -730,15 +762,19 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -761,15 +797,19 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -792,20 +832,24 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
@@ -827,20 +871,24 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
@@ -862,20 +910,24 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
@@ -897,20 +949,24 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr"/>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
@@ -932,20 +988,24 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
@@ -967,20 +1027,24 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
@@ -1002,15 +1066,19 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -1033,15 +1101,19 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -1064,15 +1136,19 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,7 +1473,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1491,18 +1487,14 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1526,19 +1518,19 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1548,58 +1540,58 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1623,14 +1615,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1659,18 +1655,18 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1680,51 +1676,47 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1732,14 +1724,18 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1749,7 +1745,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1768,13 +1764,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1780,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1803,13 +1799,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1838,13 +1834,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1873,13 +1869,13 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1889,72 +1885,68 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1973,19 +1965,19 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1999,24 +1991,24 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2035,19 +2027,19 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2066,24 +2058,24 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2097,19 +2089,19 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2128,24 +2120,28 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2164,18 +2160,18 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -2199,23 +2195,23 @@
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2229,28 +2225,24 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2264,19 +2256,19 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
@@ -2295,24 +2287,24 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2326,14 +2318,18 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2343,7 +2339,7 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2362,13 +2358,13 @@
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2383,27 +2379,27 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr"/>
+      <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2420,17 +2416,17 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2438,12 +2434,12 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2453,19 +2449,11 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2473,17 +2461,17 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2492,7 +2480,7 @@
       <c r="B60" s="2" t="n"/>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2500,7 +2488,7 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2515,11 +2503,19 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2527,7 +2523,7 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2537,24 +2533,16 @@
       </c>
       <c r="I61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2562,12 +2550,12 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -2581,7 +2569,7 @@
       <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr"/>
@@ -2589,12 +2577,12 @@
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2604,24 +2592,36 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n"/>
-      <c r="B64" s="2" t="n"/>
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2631,16 +2631,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A65" s="2" t="n"/>
+      <c r="B65" s="2" t="n"/>
       <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2648,14 +2640,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2679,14 +2671,14 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2705,19 +2697,19 @@
       <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2741,14 +2733,14 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2772,14 +2764,14 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2798,70 +2790,70 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2869,24 +2861,24 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2900,14 +2892,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2917,7 +2909,7 @@
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2926,24 +2918,20 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2957,7 +2945,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2965,17 +2953,17 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2972,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2992,12 +2980,12 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
@@ -3011,7 +2999,7 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -3019,17 +3007,17 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3026,7 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3046,7 +3034,7 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3065,7 +3053,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3073,7 +3061,7 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
@@ -3092,7 +3080,7 @@
       <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3100,26 +3088,34 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3127,34 +3123,26 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3162,17 +3150,17 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3169,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3189,12 +3177,12 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
@@ -3208,7 +3196,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3216,17 +3204,17 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3223,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3243,7 +3231,7 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3262,7 +3250,7 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr"/>
@@ -3270,12 +3258,12 @@
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
@@ -3285,19 +3273,31 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
@@ -3312,16 +3312,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3329,24 +3321,24 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3360,24 +3352,28 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3396,23 +3392,23 @@
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F90" s="2" t="inlineStr"/>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3431,23 +3427,27 @@
       </c>
       <c r="E91" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3471,12 +3471,12 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
@@ -3500,88 +3500,80 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr"/>
+      <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n"/>
-      <c r="B94" s="2" t="n"/>
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr"/>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A95" s="2" t="n"/>
+      <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
@@ -3605,24 +3597,24 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3636,19 +3628,19 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
@@ -3667,24 +3659,24 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3698,24 +3690,24 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Is floorspace lost known</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Whether the amount of floorspace to be lost is known</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3729,19 +3721,19 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Is floorspace lost known</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Whether the amount of floorspace to be lost is known</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3760,19 +3752,19 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Is total gross proposed known</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Whether the total gross proposed floorspace is known</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
@@ -3791,19 +3783,19 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Is total gross proposed known</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Whether the total gross proposed floorspace is known</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3822,14 +3814,14 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
@@ -3839,7 +3831,7 @@
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3848,24 +3840,24 @@
       <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3884,24 +3876,24 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3915,19 +3907,19 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3946,14 +3938,14 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
@@ -3977,19 +3969,19 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -4008,19 +4000,19 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -4039,19 +4031,19 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -4070,14 +4062,14 @@
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4087,33 +4079,37 @@
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n"/>
-      <c r="B112" s="2" t="n"/>
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr"/>
       <c r="E112" s="2" t="inlineStr"/>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
@@ -4123,19 +4119,11 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr"/>
@@ -4143,7 +4131,7 @@
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4162,25 +4150,33 @@
       <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr"/>
-      <c r="E114" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4199,13 +4195,13 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4215,7 +4211,7 @@
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4234,13 +4230,13 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4269,13 +4265,13 @@
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4304,13 +4300,13 @@
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -4320,7 +4316,7 @@
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4334,23 +4330,19 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -4364,24 +4356,20 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr"/>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -4395,15 +4383,19 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
@@ -4413,7 +4405,7 @@
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4427,19 +4419,19 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4453,29 +4445,25 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="inlineStr"/>
       <c r="E123" s="2" t="inlineStr"/>
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4484,7 +4472,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4492,12 +4480,12 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -4511,7 +4499,7 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4519,7 +4507,7 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
@@ -4538,7 +4526,7 @@
       <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4546,12 +4534,12 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
@@ -4561,11 +4549,19 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -4573,34 +4569,26 @@
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr"/>
@@ -4608,17 +4596,17 @@
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I128" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4615,7 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4635,7 +4623,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4654,7 +4642,7 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -4662,7 +4650,7 @@
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4681,7 +4669,7 @@
       <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -4689,7 +4677,7 @@
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4704,11 +4692,19 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n"/>
-      <c r="B132" s="2" t="n"/>
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr"/>
@@ -4716,7 +4712,7 @@
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
@@ -4726,24 +4722,16 @@
       </c>
       <c r="I132" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr"/>
@@ -4751,12 +4739,12 @@
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4770,20 +4758,24 @@
       <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4802,24 +4794,24 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4833,19 +4825,19 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4864,14 +4856,14 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4890,19 +4882,19 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4926,14 +4918,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4957,14 +4949,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4988,14 +4980,14 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -5010,50 +5002,46 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5061,12 +5049,12 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5080,7 +5068,7 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5088,12 +5076,12 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5107,7 +5095,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5115,17 +5103,17 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5134,7 +5122,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5142,17 +5130,17 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5149,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5169,26 +5157,34 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5196,47 +5192,43 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -5255,14 +5247,14 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -5286,19 +5278,23 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
@@ -5322,13 +5318,17 @@
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -5362,22 +5362,22 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5401,12 +5401,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5435,17 +5435,13 @@
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5455,7 +5451,7 @@
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5469,28 +5465,28 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5509,13 +5505,17 @@
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5549,22 +5549,22 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5603,7 +5603,7 @@
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5622,17 +5622,13 @@
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5642,7 +5638,7 @@
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5651,23 +5647,15 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr"/>
+      <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5677,7 +5665,7 @@
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5674,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5694,7 +5682,7 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5713,7 +5701,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5721,7 +5709,7 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5736,11 +5724,19 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n"/>
-      <c r="B164" s="2" t="n"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5748,7 +5744,7 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -5763,19 +5759,11 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5783,39 +5771,51 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -5825,16 +5825,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A167" s="2" t="n"/>
+      <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -5842,19 +5834,19 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -5873,14 +5865,14 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -5904,19 +5896,19 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5935,14 +5927,14 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5966,14 +5958,14 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5997,14 +5989,14 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -6028,19 +6020,19 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -6059,14 +6051,14 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -6081,50 +6073,46 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n"/>
-      <c r="B175" s="2" t="n"/>
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr"/>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A176" s="2" t="n"/>
+      <c r="B176" s="2" t="n"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr"/>
@@ -6132,12 +6120,12 @@
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
@@ -6151,7 +6139,7 @@
       <c r="B177" s="2" t="n"/>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr"/>
@@ -6159,17 +6147,17 @@
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6178,15 +6166,19 @@
       <c r="B178" s="2" t="n"/>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6196,7 +6188,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6210,14 +6202,14 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6241,14 +6233,14 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6257,37 +6249,6 @@
         </is>
       </c>
       <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n"/>
-      <c r="B181" s="2" t="n"/>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6295,50 +6256,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B43:B57"/>
-    <mergeCell ref="B133:B142"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="A95:A112"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A58"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B72:B81"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B95:B112"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="A113:A127"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B58"/>
-    <mergeCell ref="A167:A175"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A133:A142"/>
-    <mergeCell ref="B149:B164"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="B113:B127"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="B167:B175"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A72:A81"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="B42:B56"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B166:B174"/>
+    <mergeCell ref="B87:B93"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B71:B80"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B112:B126"/>
+    <mergeCell ref="A132:A141"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B175:B180"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A42:A56"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B94:B111"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A71:A80"/>
+    <mergeCell ref="B132:B141"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="A94:A111"/>
+    <mergeCell ref="B57"/>
+    <mergeCell ref="A112:A126"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="A166:A174"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B148:B163"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="A57"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A142:A147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1452,18 +1448,14 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1487,19 +1479,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1509,58 +1501,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1584,14 +1576,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1620,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1641,51 +1637,47 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1693,14 +1685,18 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1729,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1745,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1799,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1834,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1850,72 +1846,68 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A42" s="2" t="n"/>
+      <c r="B42" s="2" t="n"/>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr"/>
+          <t>Biodiversity gain condition exemption reason[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Exemption type</t>
+        </is>
+      </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1934,19 +1926,19 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Exemption type</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1960,24 +1952,24 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
+          <t>Biodiversity net gain details</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1996,19 +1988,19 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2027,24 +2019,24 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2058,19 +2050,19 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Habitat loss after 2020</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2089,24 +2081,28 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Loss date</t>
+        </is>
+      </c>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2125,18 +2121,18 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Loss date</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2160,23 +2156,23 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Supporting evidence</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2190,28 +2186,24 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Supporting evidence</t>
-        </is>
-      </c>
+          <t>Metric publication date</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2225,19 +2217,19 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2256,24 +2248,24 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Irreplaceable habitats details</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2287,14 +2279,18 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2304,7 +2300,7 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2323,13 +2319,13 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2344,27 +2340,27 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n"/>
-      <c r="B56" s="2" t="n"/>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2381,17 +2377,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr"/>
@@ -2399,12 +2395,12 @@
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2414,19 +2410,11 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr"/>
@@ -2434,17 +2422,17 @@
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2441,7 @@
       <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr"/>
@@ -2461,7 +2449,7 @@
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2476,11 +2464,19 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr"/>
@@ -2488,7 +2484,7 @@
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2498,24 +2494,16 @@
       </c>
       <c r="I60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr"/>
@@ -2523,12 +2511,12 @@
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -2542,7 +2530,7 @@
       <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr"/>
@@ -2550,12 +2538,12 @@
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I62" s="2" t="inlineStr">
@@ -2565,24 +2553,36 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n"/>
-      <c r="B63" s="2" t="n"/>
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
+        </is>
+      </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I63" s="2" t="inlineStr">
@@ -2592,16 +2592,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
-        </is>
-      </c>
+      <c r="A64" s="2" t="n"/>
+      <c r="B64" s="2" t="n"/>
       <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Existing employees</t>
@@ -2609,14 +2601,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2640,14 +2632,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2666,19 +2658,19 @@
       <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2702,14 +2694,14 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
@@ -2733,14 +2725,14 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
@@ -2759,70 +2751,70 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2830,24 +2822,24 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2861,14 +2853,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2878,7 +2870,7 @@
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2887,24 +2879,20 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
@@ -2918,7 +2906,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2926,17 +2914,17 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2933,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2953,12 +2941,12 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
@@ -2972,7 +2960,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2980,17 +2968,17 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2987,7 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -3007,7 +2995,7 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -3026,7 +3014,7 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3034,7 +3022,7 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
@@ -3053,7 +3041,7 @@
       <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3061,26 +3049,34 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3088,34 +3084,26 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A81" s="2" t="n"/>
+      <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3123,17 +3111,17 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3142,7 +3130,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3150,12 +3138,12 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
@@ -3169,7 +3157,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3177,17 +3165,17 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3184,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3204,7 +3192,7 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
@@ -3223,7 +3211,7 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr"/>
@@ -3231,12 +3219,12 @@
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I85" s="2" t="inlineStr">
@@ -3246,19 +3234,31 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n"/>
-      <c r="B86" s="2" t="n"/>
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
@@ -3273,16 +3273,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3290,24 +3282,24 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3321,24 +3313,28 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3357,23 +3353,23 @@
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr"/>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3392,23 +3388,27 @@
       </c>
       <c r="E90" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3432,12 +3432,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
@@ -3461,88 +3461,80 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr"/>
+      <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n"/>
-      <c r="B93" s="2" t="n"/>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A94" s="2" t="n"/>
+      <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
@@ -3566,24 +3558,24 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3597,19 +3589,19 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
@@ -3628,24 +3620,24 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3659,24 +3651,24 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Is floorspace lost known</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Whether the amount of floorspace to be lost is known</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3690,19 +3682,19 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Is floorspace lost known</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Whether the amount of floorspace to be lost is known</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -3721,19 +3713,19 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Is total gross proposed known</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Whether the total gross proposed floorspace is known</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3752,19 +3744,19 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Is total gross proposed known</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Whether the total gross proposed floorspace is known</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I101" s="2" t="inlineStr">
@@ -3783,14 +3775,14 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
@@ -3800,7 +3792,7 @@
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3809,24 +3801,24 @@
       <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
@@ -3845,24 +3837,24 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3876,19 +3868,19 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I105" s="2" t="inlineStr">
@@ -3907,14 +3899,14 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
@@ -3938,19 +3930,19 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3969,19 +3961,19 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -4000,19 +3992,19 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I109" s="2" t="inlineStr">
@@ -4031,14 +4023,14 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
@@ -4048,33 +4040,37 @@
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n"/>
-      <c r="B111" s="2" t="n"/>
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="inlineStr"/>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I111" s="2" t="inlineStr">
@@ -4084,19 +4080,11 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A112" s="2" t="n"/>
+      <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr"/>
@@ -4104,7 +4092,7 @@
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
@@ -4123,25 +4111,33 @@
       <c r="B113" s="2" t="n"/>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4160,13 +4156,13 @@
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -4176,7 +4172,7 @@
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4195,13 +4191,13 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4230,13 +4226,13 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4265,13 +4261,13 @@
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
@@ -4281,7 +4277,7 @@
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4295,23 +4291,19 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -4325,24 +4317,20 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr"/>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
@@ -4356,15 +4344,19 @@
       <c r="B120" s="2" t="n"/>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
@@ -4374,7 +4366,7 @@
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4388,19 +4380,19 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
@@ -4414,29 +4406,25 @@
       <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr"/>
       <c r="E122" s="2" t="inlineStr"/>
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4433,7 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -4453,12 +4441,12 @@
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
@@ -4472,7 +4460,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4480,7 +4468,7 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
@@ -4499,7 +4487,7 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4507,12 +4495,12 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
@@ -4522,11 +4510,19 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n"/>
-      <c r="B126" s="2" t="n"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4534,34 +4530,26 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A127" s="2" t="n"/>
+      <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -4569,17 +4557,17 @@
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4588,7 +4576,7 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr"/>
@@ -4596,7 +4584,7 @@
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -4615,7 +4603,7 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4623,7 +4611,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4642,7 +4630,7 @@
       <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -4650,7 +4638,7 @@
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4665,11 +4653,19 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -4677,7 +4673,7 @@
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
@@ -4687,24 +4683,16 @@
       </c>
       <c r="I131" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr"/>
@@ -4712,12 +4700,12 @@
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -4731,20 +4719,24 @@
       <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D133" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
@@ -4763,24 +4755,24 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4794,19 +4786,19 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4825,14 +4817,14 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
@@ -4851,19 +4843,19 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4887,14 +4879,14 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
@@ -4918,14 +4910,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4949,14 +4941,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4971,50 +4963,46 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr"/>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr"/>
@@ -5022,12 +5010,12 @@
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
@@ -5041,7 +5029,7 @@
       <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5049,12 +5037,12 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5068,7 +5056,7 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5076,17 +5064,17 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5095,7 +5083,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5103,17 +5091,17 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5122,7 +5110,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5130,26 +5118,34 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n"/>
-      <c r="B147" s="2" t="n"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5157,47 +5153,43 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
@@ -5216,14 +5208,14 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
@@ -5247,19 +5239,23 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
@@ -5283,13 +5279,17 @@
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
@@ -5323,22 +5323,22 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5362,12 +5362,12 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
@@ -5377,7 +5377,7 @@
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5396,17 +5396,13 @@
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5416,7 +5412,7 @@
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5430,28 +5426,28 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5470,13 +5466,17 @@
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
@@ -5510,22 +5510,22 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5549,12 +5549,12 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5583,17 +5583,13 @@
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr"/>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5603,7 +5599,7 @@
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5612,23 +5608,15 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr"/>
+      <c r="E160" s="2" t="inlineStr"/>
       <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5638,7 +5626,7 @@
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5635,7 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr"/>
@@ -5655,7 +5643,7 @@
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5674,7 +5662,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5682,7 +5670,7 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5697,11 +5685,19 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n"/>
-      <c r="B163" s="2" t="n"/>
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5709,7 +5705,7 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5724,19 +5720,11 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B164" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A164" s="2" t="n"/>
+      <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5744,39 +5732,51 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n"/>
-      <c r="B165" s="2" t="n"/>
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
@@ -5786,16 +5786,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A166" s="2" t="n"/>
+      <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -5803,19 +5795,19 @@
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -5834,14 +5826,14 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
@@ -5865,19 +5857,19 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -5896,14 +5888,14 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
@@ -5927,14 +5919,14 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5958,14 +5950,14 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5989,19 +5981,19 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -6020,14 +6012,14 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
@@ -6042,50 +6034,46 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n"/>
-      <c r="B174" s="2" t="n"/>
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr"/>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A175" s="2" t="n"/>
+      <c r="B175" s="2" t="n"/>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr"/>
@@ -6093,12 +6081,12 @@
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
@@ -6112,7 +6100,7 @@
       <c r="B176" s="2" t="n"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr"/>
@@ -6120,17 +6108,17 @@
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6139,15 +6127,19 @@
       <c r="B177" s="2" t="n"/>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
@@ -6157,7 +6149,7 @@
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6171,14 +6163,14 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6202,14 +6194,14 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6218,37 +6210,6 @@
         </is>
       </c>
       <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n"/>
-      <c r="B180" s="2" t="n"/>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr"/>
-      <c r="F180" s="2" t="inlineStr"/>
-      <c r="G180" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6256,50 +6217,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B42:B56"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B166:B174"/>
-    <mergeCell ref="B87:B93"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B71:B80"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B112:B126"/>
-    <mergeCell ref="A132:A141"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="A148:A163"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A42:A56"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B94:B111"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="A175:A180"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A71:A80"/>
-    <mergeCell ref="B132:B141"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="A94:A111"/>
-    <mergeCell ref="B57"/>
-    <mergeCell ref="A112:A126"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="A166:A174"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B148:B163"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B147:B162"/>
+    <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A147:A162"/>
+    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="B111:B125"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B126:B130"/>
+    <mergeCell ref="A174:A179"/>
+    <mergeCell ref="A63:A69"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A80:A85"/>
+    <mergeCell ref="B131:B140"/>
+    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A70:A79"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A93:A110"/>
+    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="B56"/>
+    <mergeCell ref="A165:A173"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B93:B110"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B173"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="A86:A92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1479,19 +1483,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1501,58 +1505,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1576,18 +1580,14 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1616,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1637,47 +1637,51 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1685,18 +1689,14 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1795,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1830,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1846,68 +1846,72 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity net gain</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition applies</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity gain condition exemption reason[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Exemption type</t>
-        </is>
-      </c>
+          <t>Biodiversity gain condition applies</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
+          <t>Does the applicant believe the Biodiversity Gain Condition applies to this application</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1926,19 +1930,19 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>Exemption type</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>The reason the exemption applies to this proposal</t>
+          <t>The type of biodiversity gain exemption from the bng-exemption-type enum</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1952,24 +1956,24 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain details</t>
+          <t>Biodiversity gain condition exemption reason[]</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Pre development date</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
+          <t>The reason the exemption applies to this proposal</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
@@ -1988,19 +1992,19 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Pre development biodiversity value</t>
+          <t>Pre development date</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
+          <t>Date of pre-development biodiversity value calculation, must align with application or justified earlier date</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2019,24 +2023,24 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Earlier date reason</t>
+          <t>Pre development biodiversity value</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Reason for using a pre-development date that is earlier than the application submission</t>
+          <t>Calculated biodiversity value in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2050,19 +2054,19 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss after 2020</t>
+          <t>Earlier date reason</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
+          <t>Reason for using a pre-development date that is earlier than the application submission</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2081,28 +2085,24 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Habitat loss details</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Loss date</t>
-        </is>
-      </c>
+          <t>Habitat loss after 2020</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Date the activity causing habitat loss or degradation occurred</t>
+          <t>Indicates whether there has been degradation of onsite habitat(s) after 30 Jan 2020</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2121,18 +2121,18 @@
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>Pre loss biodiversity value</t>
+          <t>Loss date</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
+          <t>Date the activity causing habitat loss or degradation occurred</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2156,23 +2156,23 @@
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Supporting evidence</t>
+          <t>Pre loss biodiversity value</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
+          <t>Biodiversity value immediately before habitat loss or degradation occurred, measured in Habitat Biodiversity Units</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2186,24 +2186,28 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Metric publication date</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>Habitat loss details</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Supporting evidence</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Publication date of the biodiversity metric tool used for calculations</t>
+          <t>Description or reference to supporting documents for habitat loss or degradation evidence</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2217,19 +2221,19 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats</t>
+          <t>Metric publication date</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether the site contains any irreplaceable habitats</t>
+          <t>Publication date of the biodiversity metric tool used for calculations</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2248,24 +2252,24 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Irreplaceable habitats details</t>
+          <t>Irreplaceable habitats</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Description and references for any irreplaceable habitats identified on the site</t>
+          <t>Indicates whether the site contains any irreplaceable habitats</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2279,18 +2283,14 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Irreplaceable habitats details</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Description and references for any irreplaceable habitats identified on the site</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2319,13 +2319,13 @@
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -6217,50 +6217,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B35:B40"/>
     <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B31:B34"/>
     <mergeCell ref="B86:B92"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="B147:B162"/>
     <mergeCell ref="A126:A130"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
     <mergeCell ref="A147:A162"/>
-    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A36:A41"/>
     <mergeCell ref="B111:B125"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="B126:B130"/>
     <mergeCell ref="A174:A179"/>
     <mergeCell ref="A63:A69"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A80:A85"/>
     <mergeCell ref="B131:B140"/>
     <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A70:A79"/>
-    <mergeCell ref="B23:B30"/>
     <mergeCell ref="A93:A110"/>
+    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B70:B79"/>
-    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B56"/>
     <mergeCell ref="A165:A173"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="B174:B179"/>
-    <mergeCell ref="A19:A22"/>
     <mergeCell ref="B80:B85"/>
     <mergeCell ref="A141:A146"/>
     <mergeCell ref="B93:B110"/>
-    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B36:B41"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A111:A125"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B42:B55"/>
     <mergeCell ref="B165:B173"/>
     <mergeCell ref="A131:A140"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B41:B55"/>
-    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I179"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4817,19 +4817,19 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4843,19 +4843,19 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
@@ -4874,24 +4874,24 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -4910,14 +4910,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4941,14 +4941,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4963,37 +4963,33 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="inlineStr">
+        <is>
+          <t>Commercial industrial</t>
+        </is>
+      </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I141" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5002,34 +4998,46 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal description</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5037,12 +5045,12 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5056,7 +5064,7 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5064,17 +5072,17 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5091,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5091,7 +5099,7 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
@@ -5110,7 +5118,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5118,7 +5126,7 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
@@ -5133,19 +5141,11 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A147" s="2" t="n"/>
+      <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5153,7 +5153,7 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
@@ -5172,55 +5172,55 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D148" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>Proposal completion date</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr"/>
       <c r="E148" s="2" t="inlineStr"/>
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>Housing type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr"/>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -5239,23 +5239,19 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Tenure type</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I150" s="2" t="inlineStr">
@@ -5274,27 +5270,19 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
@@ -5318,27 +5306,23 @@
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr"/>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I152" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5362,17 +5346,17 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
@@ -5396,13 +5380,17 @@
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5426,23 +5414,27 @@
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I155" s="2" t="inlineStr">
@@ -5461,32 +5453,28 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5505,27 +5493,23 @@
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I157" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5549,17 +5533,17 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
@@ -5583,13 +5567,17 @@
       </c>
       <c r="E159" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5608,15 +5596,27 @@
       <c r="B160" s="2" t="n"/>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr"/>
-      <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5635,15 +5635,23 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr"/>
-      <c r="E161" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5653,7 +5661,7 @@
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5670,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5670,7 +5678,7 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5685,19 +5693,11 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B163" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A163" s="2" t="n"/>
+      <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5705,7 +5705,7 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5724,7 +5724,7 @@
       <c r="B164" s="2" t="n"/>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5732,56 +5732,52 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I164" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>Site details</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D165" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="inlineStr"/>
       <c r="E165" s="2" t="inlineStr"/>
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5790,24 +5786,20 @@
       <c r="B166" s="2" t="n"/>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr"/>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -5817,8 +5809,16 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n"/>
-      <c r="B167" s="2" t="n"/>
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -5826,19 +5826,19 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -5857,19 +5857,19 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I168" s="2" t="inlineStr">
@@ -5888,19 +5888,19 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5919,14 +5919,14 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5950,14 +5950,14 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5981,19 +5981,19 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I172" s="2" t="inlineStr">
@@ -6012,19 +6012,19 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -6034,37 +6034,33 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A174" s="2" t="n"/>
+      <c r="B174" s="2" t="n"/>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I174" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6073,34 +6069,46 @@
       <c r="B175" s="2" t="n"/>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n"/>
-      <c r="B176" s="2" t="n"/>
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr"/>
@@ -6108,17 +6116,17 @@
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6127,24 +6135,20 @@
       <c r="B177" s="2" t="n"/>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr"/>
       <c r="E177" s="2" t="inlineStr"/>
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
@@ -6158,19 +6162,15 @@
       <c r="B178" s="2" t="n"/>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr"/>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,84 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
+          <t>The complete name of a person</t>
+        </is>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n"/>
+      <c r="B180" s="2" t="n"/>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr">
+        <is>
+          <t>A phone number</t>
+        </is>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n"/>
+      <c r="B181" s="2" t="n"/>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr">
+        <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="inlineStr">
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6217,49 +6279,49 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B141:B146"/>
     <mergeCell ref="B86:B92"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B147:B162"/>
+    <mergeCell ref="A131:A142"/>
+    <mergeCell ref="A176:A181"/>
     <mergeCell ref="A126:A130"/>
     <mergeCell ref="A86:A92"/>
     <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B165:B166"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A147:A162"/>
     <mergeCell ref="A36:A41"/>
     <mergeCell ref="B111:B125"/>
+    <mergeCell ref="B131:B142"/>
+    <mergeCell ref="B176:B181"/>
     <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A174:A179"/>
     <mergeCell ref="A63:A69"/>
     <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B131:B140"/>
     <mergeCell ref="B63:B69"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A70:A79"/>
     <mergeCell ref="A93:A110"/>
-    <mergeCell ref="A163:A164"/>
     <mergeCell ref="B70:B79"/>
     <mergeCell ref="B56"/>
-    <mergeCell ref="A165:A173"/>
+    <mergeCell ref="A167:A175"/>
     <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A165:A166"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B174:B179"/>
+    <mergeCell ref="B143:B148"/>
     <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="B149:B164"/>
     <mergeCell ref="B93:B110"/>
-    <mergeCell ref="B163:B164"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="A111:A125"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B42:B55"/>
-    <mergeCell ref="B165:B173"/>
-    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="B167:B175"/>
     <mergeCell ref="B60:B62"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A143:A148"/>
     <mergeCell ref="B32:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2747,43 +2747,47 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n"/>
-      <c r="B69" s="2" t="n"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>How the site is currently being used.</t>
+        </is>
+      </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>How the site is currently being used.</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="n"/>
+      <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
           <t>Existing use details[]</t>
@@ -2791,24 +2795,24 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2822,14 +2826,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2839,7 +2843,7 @@
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2848,24 +2852,20 @@
       <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I72" s="2" t="inlineStr">
@@ -2879,7 +2879,7 @@
       <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr"/>
@@ -2887,17 +2887,17 @@
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr"/>
@@ -2914,12 +2914,12 @@
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -2933,7 +2933,7 @@
       <c r="B75" s="2" t="n"/>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr"/>
@@ -2941,17 +2941,17 @@
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2960,7 @@
       <c r="B76" s="2" t="n"/>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr"/>
@@ -2968,7 +2968,7 @@
       <c r="F76" s="2" t="inlineStr"/>
       <c r="G76" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="H76" s="2" t="inlineStr">
@@ -2987,7 +2987,7 @@
       <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr"/>
@@ -2995,7 +2995,7 @@
       <c r="F77" s="2" t="inlineStr"/>
       <c r="G77" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="H77" s="2" t="inlineStr">
@@ -3014,7 +3014,7 @@
       <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr"/>
@@ -3022,26 +3022,34 @@
       <c r="F78" s="2" t="inlineStr"/>
       <c r="G78" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="H78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n"/>
-      <c r="B79" s="2" t="n"/>
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Results of any flood risk assessments made for the development site</t>
+        </is>
+      </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr"/>
@@ -3049,34 +3057,26 @@
       <c r="F79" s="2" t="inlineStr"/>
       <c r="G79" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="H79" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Results of any flood risk assessments made for the development site</t>
-        </is>
-      </c>
+      <c r="A80" s="2" t="n"/>
+      <c r="B80" s="2" t="n"/>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr"/>
@@ -3084,17 +3084,17 @@
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="H80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       <c r="B81" s="2" t="n"/>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -3111,12 +3111,12 @@
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="H81" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I81" s="2" t="inlineStr">
@@ -3130,7 +3130,7 @@
       <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr"/>
@@ -3138,17 +3138,17 @@
       <c r="F82" s="2" t="inlineStr"/>
       <c r="G82" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="H82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr"/>
@@ -3165,7 +3165,7 @@
       <c r="F83" s="2" t="inlineStr"/>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr">
@@ -3184,7 +3184,7 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr"/>
@@ -3192,12 +3192,12 @@
       <c r="F84" s="2" t="inlineStr"/>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I84" s="2" t="inlineStr">
@@ -3207,19 +3207,31 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n"/>
-      <c r="B85" s="2" t="n"/>
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr"/>
+          <t>Hours of operation[]</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E85" s="2" t="inlineStr"/>
       <c r="F85" s="2" t="inlineStr"/>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr">
@@ -3234,16 +3246,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
+      <c r="A86" s="2" t="n"/>
+      <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
           <t>Hours of operation[]</t>
@@ -3251,24 +3255,24 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr"/>
       <c r="F86" s="2" t="inlineStr"/>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3282,24 +3286,28 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr"/>
+          <t>Operational times[]</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Day type</t>
+        </is>
+      </c>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Day or type of day</t>
         </is>
       </c>
       <c r="H87" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3318,23 +3326,23 @@
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Day type</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr">
         <is>
-          <t>Day or type of day</t>
+          <t>True or False - explicitly state when closed</t>
         </is>
       </c>
       <c r="H88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3353,23 +3361,27 @@
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Closed</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr"/>
+          <t>Time ranges[]</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>Open time</t>
+        </is>
+      </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>True or False - explicitly state when closed</t>
+          <t>Opening time</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3393,12 +3405,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>Open time</t>
+          <t>Close time</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Opening time</t>
+          <t>Closing time</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr">
@@ -3422,88 +3434,80 @@
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Operational times[]</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>Time ranges[]</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>Close time</t>
-        </is>
-      </c>
+          <t>Hours not known</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Closing time</t>
+          <t>Applicant states they do not know the hours of operation</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation[]</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="inlineStr">
-        <is>
-          <t>Hours not known</t>
-        </is>
-      </c>
+          <t>Non residential change</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="2" t="inlineStr"/>
       <c r="F92" s="2" t="inlineStr"/>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Applicant states they do not know the hours of operation</t>
+          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="inlineStr">
-        <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
+      <c r="A93" s="2" t="n"/>
+      <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>Non residential change</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="inlineStr"/>
+          <t>Floorspace details[]</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="E93" s="2" t="inlineStr"/>
       <c r="F93" s="2" t="inlineStr"/>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the loss, gain, or change of non-residential floorspace?</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr">
@@ -3527,24 +3531,24 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Specified use</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr"/>
       <c r="F94" s="2" t="inlineStr"/>
       <c r="G94" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>A specified use if no applicable use class is available</t>
         </is>
       </c>
       <c r="H94" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3558,19 +3562,19 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>Specified use</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
       <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>A specified use if no applicable use class is available</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I95" s="2" t="inlineStr">
@@ -3589,24 +3593,24 @@
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Existing gross floorspace</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Existing gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3620,24 +3624,24 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Existing gross floorspace</t>
+          <t>Is floorspace lost known</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr">
         <is>
-          <t>Existing gross internal floorspace, in sqm</t>
+          <t>Whether the amount of floorspace to be lost is known</t>
         </is>
       </c>
       <c r="H97" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3651,19 +3655,19 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>Is floorspace lost known</t>
+          <t>Floorspace lost</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr">
         <is>
-          <t>Whether the amount of floorspace to be lost is known</t>
+          <t>Gross floorspace to be lost by change of use, in sqm</t>
         </is>
       </c>
       <c r="H98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I98" s="2" t="inlineStr">
@@ -3682,19 +3686,19 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Floorspace lost</t>
+          <t>Is total gross proposed known</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Gross floorspace to be lost by change of use, in sqm</t>
+          <t>Whether the total gross proposed floorspace is known</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I99" s="2" t="inlineStr">
@@ -3713,19 +3717,19 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>Is total gross proposed known</t>
+          <t>Total gross proposed</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr"/>
       <c r="F100" s="2" t="inlineStr"/>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Whether the total gross proposed floorspace is known</t>
+          <t>Total gross internal floorspace proposed, in sqm</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I100" s="2" t="inlineStr">
@@ -3744,14 +3748,14 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>Total gross proposed</t>
+          <t>Net additional floorspace</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr"/>
       <c r="F101" s="2" t="inlineStr"/>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Total gross internal floorspace proposed, in sqm</t>
+          <t>Net additional gross internal floorspace, in sqm</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr">
@@ -3761,7 +3765,7 @@
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3770,24 +3774,24 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Floorspace details[]</t>
+          <t>Room details[]</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Net additional floorspace</t>
+          <t>Use class for accommodation</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr"/>
       <c r="F102" s="2" t="inlineStr"/>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Net additional gross internal floorspace, in sqm</t>
+          <t>Type of non-residential use class referring to accommodation uses</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I102" s="2" t="inlineStr">
@@ -3806,24 +3810,24 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>Use class for accommodation</t>
+          <t>Use other</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr"/>
       <c r="F103" s="2" t="inlineStr"/>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Type of non-residential use class referring to accommodation uses</t>
+          <t>Specify use if use is "other"</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3837,19 +3841,19 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Use other</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr"/>
       <c r="F104" s="2" t="inlineStr"/>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Specify use if use is "other"</t>
+          <t>Used to explicitly state the use class does not apply to the proposal</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I104" s="2" t="inlineStr">
@@ -3868,14 +3872,14 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Is existing rooms lost known</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr"/>
       <c r="F105" s="2" t="inlineStr"/>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Whether the total existing rooms that will be lost is known</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr">
@@ -3899,19 +3903,19 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>Is existing rooms lost known</t>
+          <t>Existing rooms lost</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr"/>
       <c r="F106" s="2" t="inlineStr"/>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Whether the total existing rooms that will be lost is known</t>
+          <t>Existing rooms to be lost by change of use</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I106" s="2" t="inlineStr">
@@ -3930,19 +3934,19 @@
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms lost</t>
+          <t>Is total rooms proposed known</t>
         </is>
       </c>
       <c r="E107" s="2" t="inlineStr"/>
       <c r="F107" s="2" t="inlineStr"/>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Existing rooms to be lost by change of use</t>
+          <t>Whether the total rooms proposed is known</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I107" s="2" t="inlineStr">
@@ -3961,19 +3965,19 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>Is total rooms proposed known</t>
+          <t>Total rooms proposed</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr"/>
       <c r="F108" s="2" t="inlineStr"/>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Whether the total rooms proposed is known</t>
+          <t>Total rooms proposed (including change of use)</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I108" s="2" t="inlineStr">
@@ -3992,14 +3996,14 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed</t>
+          <t>Net additional rooms</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Total rooms proposed (including change of use)</t>
+          <t>Net additional rooms following development</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr">
@@ -4009,33 +4013,37 @@
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Room details[]</t>
-        </is>
-      </c>
-      <c r="D110" s="2" t="inlineStr">
-        <is>
-          <t>Net additional rooms</t>
-        </is>
-      </c>
+          <t>Sole owner</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr"/>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Net additional rooms following development</t>
+          <t>Is the applicant the sole owner of the land?</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I110" s="2" t="inlineStr">
@@ -4045,19 +4053,11 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>Ownership certificates and agricultural land declaration</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
+      <c r="A111" s="2" t="n"/>
+      <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Sole owner</t>
+          <t>Agricultural tenants</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr"/>
@@ -4065,7 +4065,7 @@
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant the sole owner of the land?</t>
+          <t>Are there any agricultural tenants on the land?</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr">
@@ -4084,25 +4084,33 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>Agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="inlineStr"/>
-      <c r="E112" s="2" t="inlineStr"/>
+          <t>Owners and tenants[]</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F112" s="2" t="inlineStr"/>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Are there any agricultural tenants on the land?</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4121,13 +4129,13 @@
       </c>
       <c r="E113" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr">
@@ -4137,7 +4145,7 @@
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4156,13 +4164,13 @@
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H114" s="2" t="inlineStr">
@@ -4191,13 +4199,13 @@
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H115" s="2" t="inlineStr">
@@ -4226,13 +4234,13 @@
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr"/>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
@@ -4242,7 +4250,7 @@
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4256,23 +4264,19 @@
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Notice date</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Date when notice was served</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4286,24 +4290,20 @@
       <c r="B118" s="2" t="n"/>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Owners and tenants[]</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>Notice date</t>
-        </is>
-      </c>
+          <t>Steps taken</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr"/>
       <c r="E118" s="2" t="inlineStr"/>
       <c r="F118" s="2" t="inlineStr"/>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Date when notice was served</t>
+          <t>Description of steps taken to identify unknown owners or tenants</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
@@ -4317,15 +4317,19 @@
       <c r="B119" s="2" t="n"/>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Steps taken</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="inlineStr"/>
+          <t>Newspaper notices[]</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>Newspaper name</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Description of steps taken to identify unknown owners or tenants</t>
+          <t>Name of the newspaper where notice was published</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -4335,7 +4339,7 @@
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4349,19 +4353,19 @@
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Newspaper name</t>
+          <t>Publication date</t>
         </is>
       </c>
       <c r="E120" s="2" t="inlineStr"/>
       <c r="F120" s="2" t="inlineStr"/>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Name of the newspaper where notice was published</t>
+          <t>Date when the notice was published</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -4375,29 +4379,25 @@
       <c r="B121" s="2" t="n"/>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Newspaper notices[]</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t>Publication date</t>
-        </is>
-      </c>
+          <t>Ownership certificate type</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr"/>
       <c r="E121" s="2" t="inlineStr"/>
       <c r="F121" s="2" t="inlineStr"/>
       <c r="G121" s="2" t="inlineStr">
         <is>
-          <t>Date when the notice was published</t>
+          <t>The type of ownership certificate based on ownership and tenancy status</t>
         </is>
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4406,7 +4406,7 @@
       <c r="B122" s="2" t="n"/>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificate type</t>
+          <t>Applicant signature</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr"/>
@@ -4414,12 +4414,12 @@
       <c r="F122" s="2" t="inlineStr"/>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>The type of ownership certificate based on ownership and tenancy status</t>
+          <t>Digital signature of the applicant</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
@@ -4433,7 +4433,7 @@
       <c r="B123" s="2" t="n"/>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>Applicant signature</t>
+          <t>Agent signature</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr"/>
@@ -4441,7 +4441,7 @@
       <c r="F123" s="2" t="inlineStr"/>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the applicant</t>
+          <t>Digital signature of the agent (if applicable)</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
@@ -4460,7 +4460,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Agent signature</t>
+          <t>Signature date</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Digital signature of the agent (if applicable)</t>
+          <t>Date when the ownership certificate was signed</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -4483,11 +4483,19 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n"/>
-      <c r="B125" s="2" t="n"/>
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr"/>
@@ -4495,34 +4503,26 @@
       <c r="F125" s="2" t="inlineStr"/>
       <c r="G125" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H125" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A126" s="2" t="n"/>
+      <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr"/>
@@ -4530,17 +4530,17 @@
       <c r="F126" s="2" t="inlineStr"/>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4549,7 +4549,7 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr"/>
@@ -4557,7 +4557,7 @@
       <c r="F127" s="2" t="inlineStr"/>
       <c r="G127" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H127" s="2" t="inlineStr">
@@ -4576,7 +4576,7 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr"/>
@@ -4584,7 +4584,7 @@
       <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr">
@@ -4603,7 +4603,7 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr"/>
@@ -4611,7 +4611,7 @@
       <c r="F129" s="2" t="inlineStr"/>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr">
@@ -4626,11 +4626,19 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr"/>
@@ -4638,7 +4646,7 @@
       <c r="F130" s="2" t="inlineStr"/>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr">
@@ -4648,24 +4656,16 @@
       </c>
       <c r="I130" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr"/>
@@ -4673,12 +4673,12 @@
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I131" s="2" t="inlineStr">
@@ -4692,20 +4692,24 @@
       <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I132" s="2" t="inlineStr">
@@ -4724,24 +4728,24 @@
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I133" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4755,19 +4759,19 @@
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I134" s="2" t="inlineStr">
@@ -4786,19 +4790,19 @@
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr"/>
       <c r="F135" s="2" t="inlineStr"/>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I135" s="2" t="inlineStr">
@@ -4817,19 +4821,19 @@
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr"/>
       <c r="F136" s="2" t="inlineStr"/>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I136" s="2" t="inlineStr">
@@ -4848,19 +4852,19 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I137" s="2" t="inlineStr">
@@ -4874,24 +4878,24 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I138" s="2" t="inlineStr">
@@ -4910,14 +4914,14 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr">
@@ -4941,14 +4945,14 @@
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr"/>
       <c r="F140" s="2" t="inlineStr"/>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr">
@@ -4972,14 +4976,14 @@
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
       <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr">
@@ -4994,50 +4998,46 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>Proposal description</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr"/>
       <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr"/>
       <c r="G142" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>A description of what is being proposed, including the development, works, or change of use</t>
         </is>
       </c>
       <c r="H142" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Proposal description</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr"/>
@@ -5045,12 +5045,12 @@
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr">
         <is>
-          <t>A description of what is being proposed, including the development, works, or change of use</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H143" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I143" s="2" t="inlineStr">
@@ -5064,7 +5064,7 @@
       <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Proposal started</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr"/>
@@ -5072,12 +5072,12 @@
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Has any work on the proposal already been started</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I144" s="2" t="inlineStr">
@@ -5091,7 +5091,7 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Proposal started</t>
+          <t>Proposal start date</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr"/>
@@ -5099,17 +5099,17 @@
       <c r="F145" s="2" t="inlineStr"/>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been started</t>
+          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Proposal start date</t>
+          <t>Proposal completed</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr"/>
@@ -5126,17 +5126,17 @@
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal started, in YYYY-MM-DD format</t>
+          <t>Has any work on the proposal already been completed</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I146" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Proposal completed</t>
+          <t>Proposal completion date</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr"/>
@@ -5153,26 +5153,34 @@
       <c r="F147" s="2" t="inlineStr"/>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Has any work on the proposal already been completed</t>
+          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Proposal completion date</t>
+          <t>Residential unit change</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr"/>
@@ -5180,47 +5188,43 @@
       <c r="F148" s="2" t="inlineStr"/>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>The date when work on the proposal was completed, in YYYY-MM-DD format</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I149" s="2" t="inlineStr">
@@ -5239,14 +5243,14 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="H150" s="2" t="inlineStr">
@@ -5270,19 +5274,23 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="F151" s="2" t="inlineStr"/>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I151" s="2" t="inlineStr">
@@ -5306,13 +5314,17 @@
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr">
@@ -5346,22 +5358,22 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I153" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5397,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr">
@@ -5400,7 +5412,7 @@
       </c>
       <c r="I154" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5419,17 +5431,13 @@
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr"/>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr">
@@ -5439,7 +5447,7 @@
       </c>
       <c r="I155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5453,28 +5461,28 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr"/>
       <c r="G156" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="H156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I156" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5493,13 +5501,17 @@
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="G157" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="H157" s="2" t="inlineStr">
@@ -5533,22 +5545,22 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="G158" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="H158" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I158" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5572,12 +5584,12 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="G159" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="H159" s="2" t="inlineStr">
@@ -5587,7 +5599,7 @@
       </c>
       <c r="I159" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5606,17 +5618,13 @@
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr"/>
       <c r="G160" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="H160" s="2" t="inlineStr">
@@ -5626,7 +5634,7 @@
       </c>
       <c r="I160" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5635,23 +5643,15 @@
       <c r="B161" s="2" t="n"/>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="D161" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr"/>
+      <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="H161" s="2" t="inlineStr">
@@ -5661,7 +5661,7 @@
       </c>
       <c r="I161" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       <c r="B162" s="2" t="n"/>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr"/>
@@ -5678,7 +5678,7 @@
       <c r="F162" s="2" t="inlineStr"/>
       <c r="G162" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="H162" s="2" t="inlineStr">
@@ -5697,7 +5697,7 @@
       <c r="B163" s="2" t="n"/>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr"/>
@@ -5705,7 +5705,7 @@
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="H163" s="2" t="inlineStr">
@@ -5720,11 +5720,19 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n"/>
-      <c r="B164" s="2" t="n"/>
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>How big the site is including relevant measurements</t>
+        </is>
+      </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr"/>
@@ -5732,7 +5740,7 @@
       <c r="F164" s="2" t="inlineStr"/>
       <c r="G164" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="H164" s="2" t="inlineStr">
@@ -5747,19 +5755,11 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>How big the site is including relevant measurements</t>
-        </is>
-      </c>
+      <c r="A165" s="2" t="n"/>
+      <c r="B165" s="2" t="n"/>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr"/>
@@ -5767,39 +5767,51 @@
       <c r="F165" s="2" t="inlineStr"/>
       <c r="G165" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="H165" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I165" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n"/>
-      <c r="B166" s="2" t="n"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="E166" s="2" t="inlineStr"/>
       <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr">
@@ -5809,16 +5821,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A167" s="2" t="n"/>
+      <c r="B167" s="2" t="n"/>
       <c r="C167" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -5826,19 +5830,19 @@
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H167" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I167" s="2" t="inlineStr">
@@ -5857,14 +5861,14 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr"/>
       <c r="G168" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H168" s="2" t="inlineStr">
@@ -5888,19 +5892,19 @@
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
       <c r="F169" s="2" t="inlineStr"/>
       <c r="G169" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H169" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I169" s="2" t="inlineStr">
@@ -5919,14 +5923,14 @@
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
       <c r="G170" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H170" s="2" t="inlineStr">
@@ -5950,14 +5954,14 @@
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E171" s="2" t="inlineStr"/>
       <c r="F171" s="2" t="inlineStr"/>
       <c r="G171" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H171" s="2" t="inlineStr">
@@ -5981,14 +5985,14 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>
       <c r="F172" s="2" t="inlineStr"/>
       <c r="G172" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H172" s="2" t="inlineStr">
@@ -6012,19 +6016,19 @@
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E173" s="2" t="inlineStr"/>
       <c r="F173" s="2" t="inlineStr"/>
       <c r="G173" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H173" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I173" s="2" t="inlineStr">
@@ -6043,14 +6047,14 @@
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
       <c r="F174" s="2" t="inlineStr"/>
       <c r="G174" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H174" s="2" t="inlineStr">
@@ -6065,50 +6069,46 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n"/>
-      <c r="B175" s="2" t="n"/>
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D175" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="inlineStr"/>
       <c r="E175" s="2" t="inlineStr"/>
       <c r="F175" s="2" t="inlineStr"/>
       <c r="G175" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H175" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I175" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A176" s="2" t="n"/>
+      <c r="B176" s="2" t="n"/>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr"/>
@@ -6116,12 +6116,12 @@
       <c r="F176" s="2" t="inlineStr"/>
       <c r="G176" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H176" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I176" s="2" t="inlineStr">
@@ -6135,7 +6135,7 @@
       <c r="B177" s="2" t="n"/>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr"/>
@@ -6143,17 +6143,17 @@
       <c r="F177" s="2" t="inlineStr"/>
       <c r="G177" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H177" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I177" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6162,15 +6162,19 @@
       <c r="B178" s="2" t="n"/>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D178" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E178" s="2" t="inlineStr"/>
       <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H178" s="2" t="inlineStr">
@@ -6180,7 +6184,7 @@
       </c>
       <c r="I178" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6194,14 +6198,14 @@
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
       <c r="F179" s="2" t="inlineStr"/>
       <c r="G179" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H179" s="2" t="inlineStr">
@@ -6225,14 +6229,14 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
       <c r="F180" s="2" t="inlineStr"/>
       <c r="G180" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H180" s="2" t="inlineStr">
@@ -6241,37 +6245,6 @@
         </is>
       </c>
       <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n"/>
-      <c r="B181" s="2" t="n"/>
-      <c r="C181" s="2" t="inlineStr">
-        <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="inlineStr">
-        <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
-        </is>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -6279,50 +6252,50 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B86:B92"/>
     <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A131:A142"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A126:A130"/>
-    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="A110:A124"/>
     <mergeCell ref="A42:A55"/>
-    <mergeCell ref="B165:B166"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="A36:A41"/>
-    <mergeCell ref="B111:B125"/>
-    <mergeCell ref="B131:B142"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B126:B130"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="A80:A85"/>
-    <mergeCell ref="B63:B69"/>
+    <mergeCell ref="A130:A141"/>
+    <mergeCell ref="A125:A129"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="B166:B174"/>
+    <mergeCell ref="B92:B109"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B130:B141"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B125:B129"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A70:A79"/>
-    <mergeCell ref="A93:A110"/>
-    <mergeCell ref="B70:B79"/>
+    <mergeCell ref="B175:B180"/>
     <mergeCell ref="B56"/>
-    <mergeCell ref="A167:A175"/>
+    <mergeCell ref="A148:A163"/>
+    <mergeCell ref="A92:A109"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A165:A166"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B149:B164"/>
-    <mergeCell ref="B93:B110"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="A175:A180"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="B142:B147"/>
     <mergeCell ref="B36:B41"/>
     <mergeCell ref="A56"/>
     <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="B110:B124"/>
+    <mergeCell ref="A166:A174"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B42:B55"/>
-    <mergeCell ref="A149:A164"/>
-    <mergeCell ref="B167:B175"/>
+    <mergeCell ref="B148:B163"/>
     <mergeCell ref="B60:B62"/>
+    <mergeCell ref="A63:A68"/>
     <mergeCell ref="B2:B19"/>
     <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A143:A148"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B79:B84"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="H74" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
@@ -4473,7 +4473,7 @@
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="H145" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I145" s="2" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="H147" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I147" s="2" t="inlineStr">

--- a/generated/spreadsheet/outline-planning-outline.xlsx
+++ b/generated/spreadsheet/outline-planning-outline.xlsx
@@ -4460,7 +4460,7 @@
       <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Signature date</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr"/>
@@ -4468,12 +4468,12 @@
       <c r="F124" s="2" t="inlineStr"/>
       <c r="G124" s="2" t="inlineStr">
         <is>
-          <t>Date when the ownership certificate was signed</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
